--- a/Code/Results/Cases/Case_0_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01354878864801279</v>
+        <v>0.004240061173064191</v>
       </c>
       <c r="D2">
-        <v>0.0002529519975684735</v>
+        <v>0.001023183206871892</v>
       </c>
       <c r="E2">
-        <v>0.002810445807508888</v>
+        <v>0.04002618873340502</v>
       </c>
       <c r="F2">
-        <v>1.263626793068525</v>
+        <v>0.6715747400855463</v>
       </c>
       <c r="G2">
-        <v>0.0007393968161170987</v>
+        <v>0.002357098138867389</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9438509740813004</v>
+        <v>0.5002110225797054</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.866047790342279</v>
+        <v>0.9687595036895544</v>
       </c>
       <c r="N2">
-        <v>4.001912075799964</v>
+        <v>1.748505083762183</v>
       </c>
       <c r="O2">
-        <v>4.028287374923593</v>
+        <v>2.190178209650639</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01176368694505214</v>
+        <v>0.003698286982462662</v>
       </c>
       <c r="D3">
-        <v>0.0002544460596416442</v>
+        <v>0.001052514461458376</v>
       </c>
       <c r="E3">
-        <v>0.004789495776248653</v>
+        <v>0.04258201232814418</v>
       </c>
       <c r="F3">
-        <v>1.097198618270937</v>
+        <v>0.6338536915487367</v>
       </c>
       <c r="G3">
-        <v>0.0007455686019096672</v>
+        <v>0.002361219472908731</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8193476354040357</v>
+        <v>0.4720757699876614</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.489799388569821</v>
+        <v>0.8536493934495439</v>
       </c>
       <c r="N3">
-        <v>3.56238101222516</v>
+        <v>1.603114105708613</v>
       </c>
       <c r="O3">
-        <v>3.498120254711978</v>
+        <v>2.072273628073162</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01067068197477283</v>
+        <v>0.003365212243334526</v>
       </c>
       <c r="D4">
-        <v>0.000262721358640583</v>
+        <v>0.001071733232506755</v>
       </c>
       <c r="E4">
-        <v>0.006405533329056023</v>
+        <v>0.04427033815240478</v>
       </c>
       <c r="F4">
-        <v>0.9971801052828795</v>
+        <v>0.6111867210869946</v>
       </c>
       <c r="G4">
-        <v>0.0007494715463135178</v>
+        <v>0.002363885648601975</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.7445476499138763</v>
+        <v>0.4551717564147779</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.259489112618454</v>
+        <v>0.7828418212515231</v>
       </c>
       <c r="N4">
-        <v>3.293171679025704</v>
+        <v>1.514014011049994</v>
       </c>
       <c r="O4">
-        <v>3.179902322970179</v>
+        <v>2.001542061349653</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0102258487914888</v>
+        <v>0.003229380730392251</v>
       </c>
       <c r="D5">
-        <v>0.0002676969607255941</v>
+        <v>0.001079865354451925</v>
       </c>
       <c r="E5">
-        <v>0.007156475543480756</v>
+        <v>0.04498802544245351</v>
       </c>
       <c r="F5">
-        <v>0.9569038041959459</v>
+        <v>0.6020730153911416</v>
       </c>
       <c r="G5">
-        <v>0.0007510915251702331</v>
+        <v>0.002365006362123455</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.7144316684788521</v>
+        <v>0.4483758417128527</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.16576483262557</v>
+        <v>0.7539560113548305</v>
       </c>
       <c r="N5">
-        <v>3.183612309398626</v>
+        <v>1.477752157526254</v>
       </c>
       <c r="O5">
-        <v>3.051850559242808</v>
+        <v>1.973133107656452</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01015201394799448</v>
+        <v>0.003206820084134421</v>
       </c>
       <c r="D6">
-        <v>0.0002686133133007473</v>
+        <v>0.001081233716898389</v>
       </c>
       <c r="E6">
-        <v>0.007286516404190202</v>
+        <v>0.04510898214972858</v>
       </c>
       <c r="F6">
-        <v>0.9502433027949309</v>
+        <v>0.6005671096304184</v>
       </c>
       <c r="G6">
-        <v>0.0007513623301097048</v>
+        <v>0.002365194526189596</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.7094516721326585</v>
+        <v>0.4472529576121502</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.150208432770413</v>
+        <v>0.7491577053726246</v>
       </c>
       <c r="N6">
-        <v>3.165428273106102</v>
+        <v>1.471733879279242</v>
       </c>
       <c r="O6">
-        <v>3.030679854863934</v>
+        <v>1.96844077623274</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01066468071472215</v>
+        <v>0.003363380772317015</v>
       </c>
       <c r="D7">
-        <v>0.0002627822751612996</v>
+        <v>0.001071841694489706</v>
       </c>
       <c r="E7">
-        <v>0.006415297313899782</v>
+        <v>0.04427989729316284</v>
       </c>
       <c r="F7">
-        <v>0.9966350536541881</v>
+        <v>0.6110633125826013</v>
       </c>
       <c r="G7">
-        <v>0.0007494932732532765</v>
+        <v>0.002363900624208227</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.7441400760387609</v>
+        <v>0.4550797303182819</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.25822465328821</v>
+        <v>0.7824523813474968</v>
       </c>
       <c r="N7">
-        <v>3.291693560087964</v>
+        <v>1.513524774370069</v>
       </c>
       <c r="O7">
-        <v>3.178169064104054</v>
+        <v>2.001157253354307</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01293253052456933</v>
+        <v>0.004053348437640381</v>
       </c>
       <c r="D8">
-        <v>0.0002517821695056099</v>
+        <v>0.001033043347682838</v>
       </c>
       <c r="E8">
-        <v>0.003404328954092595</v>
+        <v>0.04088257785811678</v>
       </c>
       <c r="F8">
-        <v>1.205752535629728</v>
+        <v>0.6584654399313621</v>
       </c>
       <c r="G8">
-        <v>0.0007415019085205824</v>
+        <v>0.002358491086496358</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9005505547347639</v>
+        <v>0.4904325128137259</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.736139471512786</v>
+        <v>0.9290972223864031</v>
       </c>
       <c r="N8">
-        <v>3.850210028701667</v>
+        <v>1.698341374432857</v>
       </c>
       <c r="O8">
-        <v>3.843836139196867</v>
+        <v>2.149177681767128</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0174136875466715</v>
+        <v>0.005402836275905543</v>
       </c>
       <c r="D9">
-        <v>0.0003014199759858727</v>
+        <v>0.0009667276668405833</v>
       </c>
       <c r="E9">
-        <v>0.001099816391898933</v>
+        <v>0.03517626313417122</v>
       </c>
       <c r="F9">
-        <v>1.636169577798412</v>
+        <v>0.7553871655779574</v>
       </c>
       <c r="G9">
-        <v>0.0007266833094819542</v>
+        <v>0.002348954268788187</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.222705891757386</v>
+        <v>0.5627406488661393</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.681444002260406</v>
+        <v>1.215592491278514</v>
       </c>
       <c r="N9">
-        <v>4.951884207117473</v>
+        <v>2.061952193651962</v>
       </c>
       <c r="O9">
-        <v>5.217688167262509</v>
+        <v>2.452800009781242</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02074170852343826</v>
+        <v>0.006392005683252933</v>
       </c>
       <c r="D10">
-        <v>0.0004022316058467368</v>
+        <v>0.0009242040806656249</v>
       </c>
       <c r="E10">
-        <v>0.002254316175668514</v>
+        <v>0.03158200434637148</v>
       </c>
       <c r="F10">
-        <v>1.969604922541436</v>
+        <v>0.8290870700990354</v>
       </c>
       <c r="G10">
-        <v>0.0007162428545131436</v>
+        <v>0.002342593460931394</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.472460345253637</v>
+        <v>0.6177395527227105</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.38487282501552</v>
+        <v>1.425383674267522</v>
       </c>
       <c r="N10">
-        <v>5.767083666342444</v>
+        <v>2.329625275652347</v>
       </c>
       <c r="O10">
-        <v>6.284967782541116</v>
+        <v>2.684266137338398</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02226723040637779</v>
+        <v>0.006841480855648285</v>
       </c>
       <c r="D11">
-        <v>0.000467784452231168</v>
+        <v>0.0009062600076257254</v>
       </c>
       <c r="E11">
-        <v>0.003566335710278423</v>
+        <v>0.03008013302187251</v>
       </c>
       <c r="F11">
-        <v>2.126239064443894</v>
+        <v>0.8631724695705572</v>
       </c>
       <c r="G11">
-        <v>0.0007115720593314508</v>
+        <v>0.002339838483040247</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.589837591196471</v>
+        <v>0.6431795206393502</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.707839591917974</v>
+        <v>1.52066466949465</v>
       </c>
       <c r="N11">
-        <v>6.139679646577179</v>
+        <v>2.451472790079322</v>
       </c>
       <c r="O11">
-        <v>6.787145246174816</v>
+        <v>2.791445286610326</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02284691775562209</v>
+        <v>0.007011608805512992</v>
       </c>
       <c r="D12">
-        <v>0.0004960182280218106</v>
+        <v>0.0008996711759481357</v>
       </c>
       <c r="E12">
-        <v>0.00419261163087481</v>
+        <v>0.02953084795402816</v>
       </c>
       <c r="F12">
-        <v>2.186378184836997</v>
+        <v>0.8761612656802953</v>
       </c>
       <c r="G12">
-        <v>0.0007098129643549214</v>
+        <v>0.002338815055949817</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.634912899728661</v>
+        <v>0.652874370004497</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.83066314834322</v>
+        <v>1.55672191091071</v>
       </c>
       <c r="N12">
-        <v>6.281068155262744</v>
+        <v>2.497621287847664</v>
       </c>
       <c r="O12">
-        <v>6.980086523156558</v>
+        <v>2.832306230442498</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02272197673002552</v>
+        <v>0.006974972299794047</v>
       </c>
       <c r="D13">
-        <v>0.0004897756451507362</v>
+        <v>0.0009010809490765936</v>
       </c>
       <c r="E13">
-        <v>0.004051692271947793</v>
+        <v>0.02964827701770734</v>
       </c>
       <c r="F13">
-        <v>2.17338751168964</v>
+        <v>0.8733602596506387</v>
       </c>
       <c r="G13">
-        <v>0.0007101914170758542</v>
+        <v>0.002339034589185766</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.625175759477898</v>
+        <v>0.6507836723789922</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.804185981854459</v>
+        <v>1.54895741140632</v>
       </c>
       <c r="N13">
-        <v>6.250603798193481</v>
+        <v>2.487682117247516</v>
       </c>
       <c r="O13">
-        <v>6.938403095388253</v>
+        <v>2.823493827813707</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02231487937029186</v>
+        <v>0.006855478994907571</v>
       </c>
       <c r="D14">
-        <v>0.0004700352534148244</v>
+        <v>0.0009057137792973791</v>
       </c>
       <c r="E14">
-        <v>0.003615164568889107</v>
+        <v>0.0300345517070264</v>
       </c>
       <c r="F14">
-        <v>2.131169515253504</v>
+        <v>0.8642394284973847</v>
       </c>
       <c r="G14">
-        <v>0.0007114271546663024</v>
+        <v>0.002339753888134975</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.59353286815039</v>
+        <v>0.6439758889253824</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.71793328617467</v>
+        <v>1.523631601708473</v>
       </c>
       <c r="N14">
-        <v>6.151305606590086</v>
+        <v>2.455269328857923</v>
       </c>
       <c r="O14">
-        <v>6.802960635826764</v>
+        <v>2.794801418409236</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02206579232439054</v>
+        <v>0.006782275480631483</v>
       </c>
       <c r="D15">
-        <v>0.0004584066377599783</v>
+        <v>0.0009085785224804965</v>
       </c>
       <c r="E15">
-        <v>0.003365156176653894</v>
+        <v>0.03027369657577861</v>
       </c>
       <c r="F15">
-        <v>2.105420807352559</v>
+        <v>0.8586632864924297</v>
       </c>
       <c r="G15">
-        <v>0.0007121852814411355</v>
+        <v>0.00234019705798949</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.574235070283265</v>
+        <v>0.6398139297587875</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.665172179695205</v>
+        <v>1.508115695538976</v>
       </c>
       <c r="N15">
-        <v>6.090522266637379</v>
+        <v>2.435416409958748</v>
       </c>
       <c r="O15">
-        <v>6.720371992369621</v>
+        <v>2.777262347948351</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02064227341546854</v>
+        <v>0.006362620770509864</v>
       </c>
       <c r="D16">
-        <v>0.0003983911554490405</v>
+        <v>0.000925405354690767</v>
       </c>
       <c r="E16">
-        <v>0.00218575119930664</v>
+        <v>0.0316828597655201</v>
       </c>
       <c r="F16">
-        <v>1.959477545143926</v>
+        <v>0.8268708434465282</v>
       </c>
       <c r="G16">
-        <v>0.0007165495452347221</v>
+        <v>0.002342776284765506</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.464872315526208</v>
+        <v>0.6160855238314156</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.363833907757282</v>
+        <v>1.419153612496928</v>
       </c>
       <c r="N16">
-        <v>5.742772477034919</v>
+        <v>2.32166353239478</v>
       </c>
       <c r="O16">
-        <v>6.25251626690374</v>
+        <v>2.677299947049619</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01977218862987229</v>
+        <v>0.006105042950878214</v>
       </c>
       <c r="D17">
-        <v>0.0003669999714306371</v>
+        <v>0.0009360900881132395</v>
       </c>
       <c r="E17">
-        <v>0.001674698830161248</v>
+        <v>0.03258165089374998</v>
       </c>
       <c r="F17">
-        <v>1.871291068781801</v>
+        <v>0.8075110913519836</v>
       </c>
       <c r="G17">
-        <v>0.0007192458829337195</v>
+        <v>0.002344393977042492</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.398803744417165</v>
+        <v>0.6016372251868347</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.179798405492122</v>
+        <v>1.364537756972595</v>
       </c>
       <c r="N17">
-        <v>5.529917714108706</v>
+        <v>2.251897699397148</v>
       </c>
       <c r="O17">
-        <v>5.970028401656521</v>
+        <v>2.616461356267735</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01927280729993441</v>
+        <v>0.005956844031928199</v>
       </c>
       <c r="D18">
-        <v>0.0003507583897683908</v>
+        <v>0.0009423671491943786</v>
       </c>
       <c r="E18">
-        <v>0.001453723423738396</v>
+        <v>0.03311112929237847</v>
       </c>
       <c r="F18">
-        <v>1.82102724585782</v>
+        <v>0.7964284229676508</v>
       </c>
       <c r="G18">
-        <v>0.0007208042553476214</v>
+        <v>0.002345337481392867</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.361151323568677</v>
+        <v>0.5933664957234583</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.07421953819626</v>
+        <v>1.333109744997415</v>
       </c>
       <c r="N18">
-        <v>5.407651960944122</v>
+        <v>2.211778176876123</v>
       </c>
       <c r="O18">
-        <v>5.809092390897547</v>
+        <v>2.581645726420845</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01910389912325883</v>
+        <v>0.005906658547381483</v>
       </c>
       <c r="D19">
-        <v>0.0003455546782817898</v>
+        <v>0.0009445148916924495</v>
       </c>
       <c r="E19">
-        <v>0.001390974434872572</v>
+        <v>0.03329254266702719</v>
       </c>
       <c r="F19">
-        <v>1.80408432293919</v>
+        <v>0.7926850162640022</v>
       </c>
       <c r="G19">
-        <v>0.0007213332313646588</v>
+        <v>0.00234565918050299</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.348460245525288</v>
+        <v>0.5905729375453177</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.038516604506356</v>
+        <v>1.322466328691235</v>
       </c>
       <c r="N19">
-        <v>5.366281618825326</v>
+        <v>2.198195890239788</v>
       </c>
       <c r="O19">
-        <v>5.754856410452135</v>
+        <v>2.56988806328917</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01986469772325705</v>
+        <v>0.006132467455309154</v>
       </c>
       <c r="D20">
-        <v>0.000370150005326586</v>
+        <v>0.000934939036344673</v>
       </c>
       <c r="E20">
-        <v>0.001721437886841315</v>
+        <v>0.03248467543763578</v>
       </c>
       <c r="F20">
-        <v>1.880630417203349</v>
+        <v>0.8095665240385728</v>
       </c>
       <c r="G20">
-        <v>0.0007189580873901469</v>
+        <v>0.002344220421159647</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.405800198418802</v>
+        <v>0.6031711722874178</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.199360340931221</v>
+        <v>1.37035321063577</v>
       </c>
       <c r="N20">
-        <v>5.552559342555867</v>
+        <v>2.259323600764674</v>
       </c>
       <c r="O20">
-        <v>5.99993734397782</v>
+        <v>2.622919371050045</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02243439642370504</v>
+        <v>0.006890579255603768</v>
       </c>
       <c r="D21">
-        <v>0.0004757358357525554</v>
+        <v>0.0009043473692509352</v>
       </c>
       <c r="E21">
-        <v>0.003739729729122399</v>
+        <v>0.02992056351308126</v>
       </c>
       <c r="F21">
-        <v>2.143546604700688</v>
+        <v>0.8669162204955683</v>
       </c>
       <c r="G21">
-        <v>0.0007110639413275486</v>
+        <v>0.002339542075402129</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.602809398596605</v>
+        <v>0.6459738303423705</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>4.743252775904878</v>
+        <v>1.531071057941958</v>
       </c>
       <c r="N21">
-        <v>6.180463544333861</v>
+        <v>2.464789580901879</v>
       </c>
       <c r="O21">
-        <v>6.842664732488345</v>
+        <v>2.803221595161745</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02412571658976503</v>
+        <v>0.007385588461140458</v>
       </c>
       <c r="D22">
-        <v>0.0005649622859587033</v>
+        <v>0.0008855581981563887</v>
       </c>
       <c r="E22">
-        <v>0.005822468706694561</v>
+        <v>0.02835822220647</v>
       </c>
       <c r="F22">
-        <v>2.320249348717923</v>
+        <v>0.9048724738977967</v>
       </c>
       <c r="G22">
-        <v>0.0007059598991690877</v>
+        <v>0.002336600004583114</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.735268782845836</v>
+        <v>0.6743054325277313</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.101820222983307</v>
+        <v>1.635971227548396</v>
       </c>
       <c r="N22">
-        <v>6.592574548641437</v>
+        <v>2.599115192116528</v>
       </c>
       <c r="O22">
-        <v>7.409835270845861</v>
+        <v>2.92266136087926</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02322181883512542</v>
+        <v>0.007121436934248493</v>
       </c>
       <c r="D23">
-        <v>0.0005152729195825323</v>
+        <v>0.0008954744969029704</v>
       </c>
       <c r="E23">
-        <v>0.00463503291113665</v>
+        <v>0.02918159532040043</v>
       </c>
       <c r="F23">
-        <v>2.225453203325912</v>
+        <v>0.8845707137802918</v>
       </c>
       <c r="G23">
-        <v>0.0007086795703908634</v>
+        <v>0.002338159709512006</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.66420286803087</v>
+        <v>0.659151340825062</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>4.91012730575936</v>
+        <v>1.579997153483447</v>
       </c>
       <c r="N23">
-        <v>6.372448988665042</v>
+        <v>2.527420659581423</v>
       </c>
       <c r="O23">
-        <v>7.105487470170431</v>
+        <v>2.858766344333162</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01982287176482345</v>
+        <v>0.006120069191489108</v>
       </c>
       <c r="D24">
-        <v>0.0003687202935171996</v>
+        <v>0.0009354590083505698</v>
       </c>
       <c r="E24">
-        <v>0.001700081497689077</v>
+        <v>0.03252847834317407</v>
       </c>
       <c r="F24">
-        <v>1.876406748872355</v>
+        <v>0.8086371150076133</v>
       </c>
       <c r="G24">
-        <v>0.0007190881740621768</v>
+        <v>0.002344298843830028</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.402636076076575</v>
+        <v>0.6024775633824078</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.19051569429881</v>
+        <v>1.367724133104119</v>
       </c>
       <c r="N24">
-        <v>5.5423227312628</v>
+        <v>2.255966382249369</v>
       </c>
       <c r="O24">
-        <v>5.986410960590263</v>
+        <v>2.619999200452185</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01619631698610036</v>
+        <v>0.005038157547222255</v>
       </c>
       <c r="D25">
-        <v>0.0002784007357945484</v>
+        <v>0.0009835974361682709</v>
       </c>
       <c r="E25">
-        <v>0.00127496817621342</v>
+        <v>0.03661605557468661</v>
       </c>
       <c r="F25">
-        <v>1.517084905133842</v>
+        <v>0.7287350745715457</v>
       </c>
       <c r="G25">
-        <v>0.0007306079958955173</v>
+        <v>0.00235142028869243</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.133546008612498</v>
+        <v>0.5428543734047935</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.42446302917088</v>
+        <v>1.138207394449481</v>
       </c>
       <c r="N25">
-        <v>4.652982244325926</v>
+        <v>1.963479237251988</v>
       </c>
       <c r="O25">
-        <v>4.837121117815116</v>
+        <v>2.369206309455649</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_166/res_line/pl_mw.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.004240061173064191</v>
+        <v>0.01354878864801279</v>
       </c>
       <c r="D2">
-        <v>0.001023183206871892</v>
+        <v>0.0002529519975693617</v>
       </c>
       <c r="E2">
-        <v>0.04002618873340502</v>
+        <v>0.002810445807494233</v>
       </c>
       <c r="F2">
-        <v>0.6715747400855463</v>
+        <v>1.263626793068525</v>
       </c>
       <c r="G2">
-        <v>0.002357098138867389</v>
+        <v>0.0007393968161342615</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.5002110225797054</v>
+        <v>0.9438509740813004</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9687595036895544</v>
+        <v>2.866047790342307</v>
       </c>
       <c r="N2">
-        <v>1.748505083762183</v>
+        <v>4.001912075799851</v>
       </c>
       <c r="O2">
-        <v>2.190178209650639</v>
+        <v>4.02828737492365</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.003698286982462662</v>
+        <v>0.01176368694489938</v>
       </c>
       <c r="D3">
-        <v>0.001052514461458376</v>
+        <v>0.000254446059714919</v>
       </c>
       <c r="E3">
-        <v>0.04258201232814418</v>
+        <v>0.004789495776230446</v>
       </c>
       <c r="F3">
-        <v>0.6338536915487367</v>
+        <v>1.097198618270937</v>
       </c>
       <c r="G3">
-        <v>0.002361219472908731</v>
+        <v>0.0007455686018367181</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4720757699876614</v>
+        <v>0.8193476354040357</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8536493934495439</v>
+        <v>2.489799388569793</v>
       </c>
       <c r="N3">
-        <v>1.603114105708613</v>
+        <v>3.562381012225273</v>
       </c>
       <c r="O3">
-        <v>2.072273628073162</v>
+        <v>3.498120254711978</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.003365212243334526</v>
+        <v>0.01067068197499665</v>
       </c>
       <c r="D4">
-        <v>0.001071733232506755</v>
+        <v>0.0002627213585713051</v>
       </c>
       <c r="E4">
-        <v>0.04427033815240478</v>
+        <v>0.006405533329022273</v>
       </c>
       <c r="F4">
-        <v>0.6111867210869946</v>
+        <v>0.9971801052828795</v>
       </c>
       <c r="G4">
-        <v>0.002363885648601975</v>
+        <v>0.000749471546348654</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4551717564147779</v>
+        <v>0.7445476499138763</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7828418212515231</v>
+        <v>2.259489112618411</v>
       </c>
       <c r="N4">
-        <v>1.514014011049994</v>
+        <v>3.293171679025704</v>
       </c>
       <c r="O4">
-        <v>2.001542061349653</v>
+        <v>3.179902322970207</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.003229380730392251</v>
+        <v>0.01022584879162736</v>
       </c>
       <c r="D5">
-        <v>0.001079865354451925</v>
+        <v>0.00026769696072515</v>
       </c>
       <c r="E5">
-        <v>0.04498802544245351</v>
+        <v>0.007156475543494523</v>
       </c>
       <c r="F5">
-        <v>0.6020730153911416</v>
+        <v>0.9569038041959317</v>
       </c>
       <c r="G5">
-        <v>0.002365006362123455</v>
+        <v>0.0007510915251356387</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4483758417128527</v>
+        <v>0.7144316684788521</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7539560113548305</v>
+        <v>2.165764832625626</v>
       </c>
       <c r="N5">
-        <v>1.477752157526254</v>
+        <v>3.183612309398654</v>
       </c>
       <c r="O5">
-        <v>1.973133107656452</v>
+        <v>3.05185055924278</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.003206820084134421</v>
+        <v>0.01015201394788079</v>
       </c>
       <c r="D6">
-        <v>0.001081233716898389</v>
+        <v>0.0002686133132980828</v>
       </c>
       <c r="E6">
-        <v>0.04510898214972858</v>
+        <v>0.007286516404207077</v>
       </c>
       <c r="F6">
-        <v>0.6005671096304184</v>
+        <v>0.9502433027949309</v>
       </c>
       <c r="G6">
-        <v>0.002365194526189596</v>
+        <v>0.0007513623301779583</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4472529576121502</v>
+        <v>0.7094516721326585</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7491577053726246</v>
+        <v>2.150208432770356</v>
       </c>
       <c r="N6">
-        <v>1.471733879279242</v>
+        <v>3.165428273106244</v>
       </c>
       <c r="O6">
-        <v>1.96844077623274</v>
+        <v>3.030679854863962</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.003363380772317015</v>
+        <v>0.01066468071472215</v>
       </c>
       <c r="D7">
-        <v>0.001071841694489706</v>
+        <v>0.0002627822751612996</v>
       </c>
       <c r="E7">
-        <v>0.04427989729316284</v>
+        <v>0.006415297313882462</v>
       </c>
       <c r="F7">
-        <v>0.6110633125826013</v>
+        <v>0.9966350536541881</v>
       </c>
       <c r="G7">
-        <v>0.002363900624208227</v>
+        <v>0.0007494932732183602</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4550797303182819</v>
+        <v>0.7441400760387609</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7824523813474968</v>
+        <v>2.258224653288224</v>
       </c>
       <c r="N7">
-        <v>1.513524774370069</v>
+        <v>3.291693560087936</v>
       </c>
       <c r="O7">
-        <v>2.001157253354307</v>
+        <v>3.178169064104083</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.004053348437640381</v>
+        <v>0.01293253052441301</v>
       </c>
       <c r="D8">
-        <v>0.001033043347682838</v>
+        <v>0.0002517821694287825</v>
       </c>
       <c r="E8">
-        <v>0.04088257785811678</v>
+        <v>0.003404328954088598</v>
       </c>
       <c r="F8">
-        <v>0.6584654399313621</v>
+        <v>1.205752535629713</v>
       </c>
       <c r="G8">
-        <v>0.002358491086496358</v>
+        <v>0.0007415019085305063</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4904325128137259</v>
+        <v>0.9005505547347639</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9290972223864031</v>
+        <v>2.7361394715128</v>
       </c>
       <c r="N8">
-        <v>1.698341374432857</v>
+        <v>3.850210028701667</v>
       </c>
       <c r="O8">
-        <v>2.149177681767128</v>
+        <v>3.843836139196867</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.005402836275905543</v>
+        <v>0.01741368754666439</v>
       </c>
       <c r="D9">
-        <v>0.0009667276668405833</v>
+        <v>0.0003014199759001635</v>
       </c>
       <c r="E9">
-        <v>0.03517626313417122</v>
+        <v>0.001099816391886055</v>
       </c>
       <c r="F9">
-        <v>0.7553871655779574</v>
+        <v>1.636169577798384</v>
       </c>
       <c r="G9">
-        <v>0.002348954268788187</v>
+        <v>0.0007266833095097503</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5627406488661393</v>
+        <v>1.222705891757371</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.215592491278514</v>
+        <v>3.68144400226042</v>
       </c>
       <c r="N9">
-        <v>2.061952193651962</v>
+        <v>4.951884207117473</v>
       </c>
       <c r="O9">
-        <v>2.452800009781242</v>
+        <v>5.217688167262452</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.006392005683252933</v>
+        <v>0.02074170852382196</v>
       </c>
       <c r="D10">
-        <v>0.0009242040806656249</v>
+        <v>0.0004022316058507336</v>
       </c>
       <c r="E10">
-        <v>0.03158200434637148</v>
+        <v>0.002254316175647642</v>
       </c>
       <c r="F10">
-        <v>0.8290870700990354</v>
+        <v>1.969604922541407</v>
       </c>
       <c r="G10">
-        <v>0.002342593460931394</v>
+        <v>0.0007162428545137711</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.6177395527227105</v>
+        <v>1.472460345253623</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.425383674267522</v>
+        <v>4.384872825015563</v>
       </c>
       <c r="N10">
-        <v>2.329625275652347</v>
+        <v>5.76708366634233</v>
       </c>
       <c r="O10">
-        <v>2.684266137338398</v>
+        <v>6.284967782541059</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.006841480855648285</v>
+        <v>0.02226723040596568</v>
       </c>
       <c r="D11">
-        <v>0.0009062600076257254</v>
+        <v>0.0004677844522165131</v>
       </c>
       <c r="E11">
-        <v>0.03008013302187251</v>
+        <v>0.003566335710264656</v>
       </c>
       <c r="F11">
-        <v>0.8631724695705572</v>
+        <v>2.126239064443922</v>
       </c>
       <c r="G11">
-        <v>0.002339838483040247</v>
+        <v>0.0007115720592762022</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.6431795206393502</v>
+        <v>1.589837591196485</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.52066466949465</v>
+        <v>4.707839591918045</v>
       </c>
       <c r="N11">
-        <v>2.451472790079322</v>
+        <v>6.139679646577179</v>
       </c>
       <c r="O11">
-        <v>2.791445286610326</v>
+        <v>6.787145246174759</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.007011608805512992</v>
+        <v>0.02284691775562209</v>
       </c>
       <c r="D12">
-        <v>0.0008996711759481357</v>
+        <v>0.0004960182280071557</v>
       </c>
       <c r="E12">
-        <v>0.02953084795402816</v>
+        <v>0.004192611630873477</v>
       </c>
       <c r="F12">
-        <v>0.8761612656802953</v>
+        <v>2.186378184836983</v>
       </c>
       <c r="G12">
-        <v>0.002338815055949817</v>
+        <v>0.0007098129643756826</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.652874370004497</v>
+        <v>1.634912899728647</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.55672191091071</v>
+        <v>4.830663148343248</v>
       </c>
       <c r="N12">
-        <v>2.497621287847664</v>
+        <v>6.281068155262744</v>
       </c>
       <c r="O12">
-        <v>2.832306230442498</v>
+        <v>6.980086523156501</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.006974972299794047</v>
+        <v>0.02272197673001841</v>
       </c>
       <c r="D13">
-        <v>0.0009010809490765936</v>
+        <v>0.000489775645049928</v>
       </c>
       <c r="E13">
-        <v>0.02964827701770734</v>
+        <v>0.004051692271932694</v>
       </c>
       <c r="F13">
-        <v>0.8733602596506387</v>
+        <v>2.17338751168964</v>
       </c>
       <c r="G13">
-        <v>0.002339034589185766</v>
+        <v>0.0007101914170751691</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.6507836723789922</v>
+        <v>1.625175759477898</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.54895741140632</v>
+        <v>4.804185981854474</v>
       </c>
       <c r="N13">
-        <v>2.487682117247516</v>
+        <v>6.250603798193481</v>
       </c>
       <c r="O13">
-        <v>2.823493827813707</v>
+        <v>6.938403095388253</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.006855478994907571</v>
+        <v>0.02231487936985133</v>
       </c>
       <c r="D14">
-        <v>0.0009057137792973791</v>
+        <v>0.0004700352535262908</v>
       </c>
       <c r="E14">
-        <v>0.0300345517070264</v>
+        <v>0.003615164568889995</v>
       </c>
       <c r="F14">
-        <v>0.8642394284973847</v>
+        <v>2.131169515253504</v>
       </c>
       <c r="G14">
-        <v>0.002339753888134975</v>
+        <v>0.0007114271546668593</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.6439758889253824</v>
+        <v>1.59353286815039</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.523631601708473</v>
+        <v>4.717933286174684</v>
       </c>
       <c r="N14">
-        <v>2.455269328857923</v>
+        <v>6.151305606590086</v>
       </c>
       <c r="O14">
-        <v>2.794801418409236</v>
+        <v>6.802960635826707</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.006782275480631483</v>
+        <v>0.02206579232417027</v>
       </c>
       <c r="D15">
-        <v>0.0009085785224804965</v>
+        <v>0.0004584066377661955</v>
       </c>
       <c r="E15">
-        <v>0.03027369657577861</v>
+        <v>0.003365156176641904</v>
       </c>
       <c r="F15">
-        <v>0.8586632864924297</v>
+        <v>2.105420807352544</v>
       </c>
       <c r="G15">
-        <v>0.00234019705798949</v>
+        <v>0.0007121852814627607</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.6398139297587875</v>
+        <v>1.574235070283279</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.508115695538976</v>
+        <v>4.66517217969519</v>
       </c>
       <c r="N15">
-        <v>2.435416409958748</v>
+        <v>6.090522266637379</v>
       </c>
       <c r="O15">
-        <v>2.777262347948351</v>
+        <v>6.720371992369678</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.006362620770509864</v>
+        <v>0.02064227341546854</v>
       </c>
       <c r="D16">
-        <v>0.000925405354690767</v>
+        <v>0.0003983911552460917</v>
       </c>
       <c r="E16">
-        <v>0.0316828597655201</v>
+        <v>0.002185751199330177</v>
       </c>
       <c r="F16">
-        <v>0.8268708434465282</v>
+        <v>1.959477545143912</v>
       </c>
       <c r="G16">
-        <v>0.002342776284765506</v>
+        <v>0.0007165495451879712</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.6160855238314156</v>
+        <v>1.464872315526208</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.419153612496928</v>
+        <v>4.363833907757282</v>
       </c>
       <c r="N16">
-        <v>2.32166353239478</v>
+        <v>5.742772477034748</v>
       </c>
       <c r="O16">
-        <v>2.677299947049619</v>
+        <v>6.25251626690374</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.006105042950878214</v>
+        <v>0.01977218863005703</v>
       </c>
       <c r="D17">
-        <v>0.0009360900881132395</v>
+        <v>0.0003669999715372185</v>
       </c>
       <c r="E17">
-        <v>0.03258165089374998</v>
+        <v>0.001674698830136823</v>
       </c>
       <c r="F17">
-        <v>0.8075110913519836</v>
+        <v>1.871291068781801</v>
       </c>
       <c r="G17">
-        <v>0.002344393977042492</v>
+        <v>0.0007192458829329285</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.6016372251868347</v>
+        <v>1.398803744417179</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.364537756972595</v>
+        <v>4.179798405492136</v>
       </c>
       <c r="N17">
-        <v>2.251897699397148</v>
+        <v>5.529917714108706</v>
       </c>
       <c r="O17">
-        <v>2.616461356267735</v>
+        <v>5.970028401656521</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.005956844031928199</v>
+        <v>0.01927280729994152</v>
       </c>
       <c r="D18">
-        <v>0.0009423671491943786</v>
+        <v>0.000350758389774164</v>
       </c>
       <c r="E18">
-        <v>0.03311112929237847</v>
+        <v>0.001453723423739284</v>
       </c>
       <c r="F18">
-        <v>0.7964284229676508</v>
+        <v>1.82102724585782</v>
       </c>
       <c r="G18">
-        <v>0.002345337481392867</v>
+        <v>0.0007208042553937039</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5933664957234583</v>
+        <v>1.361151323568677</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.333109744997415</v>
+        <v>4.07421953819626</v>
       </c>
       <c r="N18">
-        <v>2.211778176876123</v>
+        <v>5.407651960944122</v>
       </c>
       <c r="O18">
-        <v>2.581645726420845</v>
+        <v>5.809092390897547</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.005906658547381483</v>
+        <v>0.01910389912337962</v>
       </c>
       <c r="D19">
-        <v>0.0009445148916924495</v>
+        <v>0.0003455546780810614</v>
       </c>
       <c r="E19">
-        <v>0.03329254266702719</v>
+        <v>0.001390974434851255</v>
       </c>
       <c r="F19">
-        <v>0.7926850162640022</v>
+        <v>1.80408432293919</v>
       </c>
       <c r="G19">
-        <v>0.00234565918050299</v>
+        <v>0.000721333231454957</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5905729375453177</v>
+        <v>1.348460245525288</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.322466328691235</v>
+        <v>4.038516604506327</v>
       </c>
       <c r="N19">
-        <v>2.198195890239788</v>
+        <v>5.366281618825326</v>
       </c>
       <c r="O19">
-        <v>2.56988806328917</v>
+        <v>5.754856410452135</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.006132467455309154</v>
+        <v>0.01986469772306521</v>
       </c>
       <c r="D20">
-        <v>0.000934939036344673</v>
+        <v>0.0003701500052399886</v>
       </c>
       <c r="E20">
-        <v>0.03248467543763578</v>
+        <v>0.001721437886856858</v>
       </c>
       <c r="F20">
-        <v>0.8095665240385728</v>
+        <v>1.880630417203335</v>
       </c>
       <c r="G20">
-        <v>0.002344220421159647</v>
+        <v>0.0007189580874369803</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.6031711722874178</v>
+        <v>1.405800198418774</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.37035321063577</v>
+        <v>4.199360340931193</v>
       </c>
       <c r="N20">
-        <v>2.259323600764674</v>
+        <v>5.552559342555867</v>
       </c>
       <c r="O20">
-        <v>2.622919371050045</v>
+        <v>5.99993734397782</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.006890579255603768</v>
+        <v>0.02243439642328582</v>
       </c>
       <c r="D21">
-        <v>0.0009043473692509352</v>
+        <v>0.000475735835755664</v>
       </c>
       <c r="E21">
-        <v>0.02992056351308126</v>
+        <v>0.003739729729111296</v>
       </c>
       <c r="F21">
-        <v>0.8669162204955683</v>
+        <v>2.143546604700674</v>
       </c>
       <c r="G21">
-        <v>0.002339542075402129</v>
+        <v>0.0007110639413278085</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.6459738303423705</v>
+        <v>1.602809398596619</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.531071057941958</v>
+        <v>4.743252775904892</v>
       </c>
       <c r="N21">
-        <v>2.464789580901879</v>
+        <v>6.180463544333804</v>
       </c>
       <c r="O21">
-        <v>2.803221595161745</v>
+        <v>6.842664732488345</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.007385588461140458</v>
+        <v>0.02412571658933871</v>
       </c>
       <c r="D22">
-        <v>0.0008855581981563887</v>
+        <v>0.0005649622859653647</v>
       </c>
       <c r="E22">
-        <v>0.02835822220647</v>
+        <v>0.005822468706682571</v>
       </c>
       <c r="F22">
-        <v>0.9048724738977967</v>
+        <v>2.320249348717923</v>
       </c>
       <c r="G22">
-        <v>0.002336600004583114</v>
+        <v>0.0007059598992248395</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.6743054325277313</v>
+        <v>1.735268782845836</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.635971227548396</v>
+        <v>5.101820222983335</v>
       </c>
       <c r="N22">
-        <v>2.599115192116528</v>
+        <v>6.592574548641551</v>
       </c>
       <c r="O22">
-        <v>2.92266136087926</v>
+        <v>7.409835270845804</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.007121436934248493</v>
+        <v>0.02322181883512542</v>
       </c>
       <c r="D23">
-        <v>0.0008954744969029704</v>
+        <v>0.0005152729194786154</v>
       </c>
       <c r="E23">
-        <v>0.02918159532040043</v>
+        <v>0.004635032911096015</v>
       </c>
       <c r="F23">
-        <v>0.8845707137802918</v>
+        <v>2.225453203325941</v>
       </c>
       <c r="G23">
-        <v>0.002338159709512006</v>
+        <v>0.0007086795703901473</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.659151340825062</v>
+        <v>1.66420286803087</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.579997153483447</v>
+        <v>4.910127305759374</v>
       </c>
       <c r="N23">
-        <v>2.527420659581423</v>
+        <v>6.372448988665042</v>
       </c>
       <c r="O23">
-        <v>2.858766344333162</v>
+        <v>7.105487470170374</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.006120069191489108</v>
+        <v>0.01982287176453212</v>
       </c>
       <c r="D24">
-        <v>0.0009354590083505698</v>
+        <v>0.0003687202933315703</v>
       </c>
       <c r="E24">
-        <v>0.03252847834317407</v>
+        <v>0.001700081497688188</v>
       </c>
       <c r="F24">
-        <v>0.8086371150076133</v>
+        <v>1.876406748872355</v>
       </c>
       <c r="G24">
-        <v>0.002344298843830028</v>
+        <v>0.0007190881740620044</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.6024775633824078</v>
+        <v>1.402636076076604</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.367724133104119</v>
+        <v>4.190515694298853</v>
       </c>
       <c r="N24">
-        <v>2.255966382249369</v>
+        <v>5.542322731263027</v>
       </c>
       <c r="O24">
-        <v>2.619999200452185</v>
+        <v>5.986410960590263</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.005038157547222255</v>
+        <v>0.0161963169860968</v>
       </c>
       <c r="D25">
-        <v>0.0009835974361682709</v>
+        <v>0.0002784007356000373</v>
       </c>
       <c r="E25">
-        <v>0.03661605557468661</v>
+        <v>0.001274968176212976</v>
       </c>
       <c r="F25">
-        <v>0.7287350745715457</v>
+        <v>1.517084905133828</v>
       </c>
       <c r="G25">
-        <v>0.00235142028869243</v>
+        <v>0.0007306079959374445</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5428543734047935</v>
+        <v>1.133546008612527</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.138207394449481</v>
+        <v>3.424463029170852</v>
       </c>
       <c r="N25">
-        <v>1.963479237251988</v>
+        <v>4.652982244325926</v>
       </c>
       <c r="O25">
-        <v>2.369206309455649</v>
+        <v>4.837121117815229</v>
       </c>
     </row>
   </sheetData>
